--- a/pred_ohlcv/54_21/2020-01-23 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 ENJ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>161386.4004</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>164479.3233</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>170870.521</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>168103.0711</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>166019.0712</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>166659.0712</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>164172.7697</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>164172.7697</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>164172.7697</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>170603.5931</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>166688.7941</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>167804.0021</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>167788.0213</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>168469.8759</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>168449.8759</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>173041.5938</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>177140.2934</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>177239.0152</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>190153.6025</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>190159.6025</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>221628.1758</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>221449.1986</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>220369.1986</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>220983.2534</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>221204.6398</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>221803.4391</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>221803.4391</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>222103.4433</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>236407.4915</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>240587.0431</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>240278.9562</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>262657.2549</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>291941.5326</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>276429.725</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>270188.7022</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>271603.2719</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>275758.3122</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>283092.0994</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>240625.6029</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>237426.6455</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>201720.3518</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>208482.8302</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>217930.8425</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>183665.1409</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>219651.3369</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>219106.3369</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>219556.3369</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>219931.9698</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>241673.042</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>226424.8452</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>303756.9074</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>303756.9074</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>299177.2057</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>299355.0043</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>304544.8251</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>303131.4795</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>304833.4795</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>302713.4795</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>302483.4795</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>289457.5956999999</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>235587.3290967187</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>226930.0836967186</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>235742.6535967187</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>234229.2328967187</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>234229.2328967187</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>234229.2328967187</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>234229.2328967187</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>234229.2328967187</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-23 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 ENJ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>161386.4004</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>164479.3233</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>170870.521</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>168103.0711</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>166019.0712</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>166659.0712</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>164172.7697</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>164172.7697</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>164172.7697</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>171103.5931</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>170603.5931</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>166688.7941</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>167804.0021</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>167788.0213</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>168469.8759</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>173041.5938</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>177140.2934</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>190159.6025</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>221628.1758</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>221449.1986</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>220369.1986</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>220983.2534</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>221204.6398</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>221803.4391</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>221803.4391</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>222103.4433</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>236407.4915</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>240587.0431</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>240278.9562</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>262657.2549</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>291941.5326</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>276429.725</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>270188.7022</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>271603.2719</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>275758.3122</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>283092.0994</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>265476.5488</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>237605.7495</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>237426.6455</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>205326.5294</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>208482.8302</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>217930.8425</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>183665.1409</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>219651.3369</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>219106.3369</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>219931.9698</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>219492.8239</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>207869.7604</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>219969.3218</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>231969.3218</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>235969.3218</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>239843.9615</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>242851.8241</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>241673.042</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>221102.0373</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>253075.2387</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>240640.8733</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>249158.0392</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>249158.0392</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>226424.8452</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>303756.9074</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>303756.9074</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>299177.2057</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>299355.0043</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>304544.8251</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>303131.4795</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>304833.4795</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>302713.4795</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>302483.4795</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>235587.3290967187</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>226930.0836967186</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>235742.6535967187</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>234229.2328967187</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>234229.2328967187</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>234229.2328967187</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>234229.2328967187</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>234229.2328967187</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
